--- a/const/game_numerics/buildings.xlsx
+++ b/const/game_numerics/buildings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="640" windowWidth="22540" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="300" yWindow="120" windowWidth="22540" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="建造列表" sheetId="9" r:id="rId1"/>
@@ -188,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -239,6 +239,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -268,7 +276,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -286,6 +294,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -633,7 +644,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -692,25 +703,25 @@
       <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
-        <v>100</v>
-      </c>
-      <c r="D2" s="5">
-        <v>100</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="C2" s="7">
+        <v>100</v>
+      </c>
+      <c r="D2" s="7">
+        <v>100</v>
+      </c>
+      <c r="E2" s="7">
+        <v>100</v>
+      </c>
+      <c r="F2" s="7">
+        <v>100</v>
+      </c>
+      <c r="G2" s="7">
+        <v>3600</v>
+      </c>
+      <c r="H2" s="7">
         <v>50</v>
       </c>
-      <c r="F2" s="5">
-        <v>50</v>
-      </c>
-      <c r="G2" s="5">
-        <v>20</v>
-      </c>
-      <c r="H2" s="5">
-        <v>50</v>
-      </c>
-      <c r="I2" s="5">
+      <c r="I2" s="7">
         <v>100</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -730,26 +741,26 @@
       <c r="B3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="5">
-        <v>150</v>
-      </c>
-      <c r="D3" s="5">
-        <v>150</v>
-      </c>
-      <c r="E3" s="5">
-        <v>100</v>
-      </c>
-      <c r="F3" s="5">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5">
-        <v>40</v>
-      </c>
-      <c r="H3" s="5">
-        <v>10</v>
-      </c>
-      <c r="I3" s="5">
-        <v>150</v>
+      <c r="C3" s="7">
+        <v>100</v>
+      </c>
+      <c r="D3" s="7">
+        <v>100</v>
+      </c>
+      <c r="E3" s="7">
+        <v>100</v>
+      </c>
+      <c r="F3" s="7">
+        <v>100</v>
+      </c>
+      <c r="G3" s="7">
+        <v>3600</v>
+      </c>
+      <c r="H3" s="7">
+        <v>50</v>
+      </c>
+      <c r="I3" s="7">
+        <v>100</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>47</v>
@@ -768,26 +779,26 @@
       <c r="B4" s="5">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
-        <v>200</v>
-      </c>
-      <c r="D4" s="5">
-        <v>200</v>
-      </c>
-      <c r="E4" s="5">
-        <v>150</v>
-      </c>
-      <c r="F4" s="5">
-        <v>150</v>
-      </c>
-      <c r="G4" s="5">
-        <v>40</v>
-      </c>
-      <c r="H4" s="5">
-        <v>150</v>
-      </c>
-      <c r="I4" s="5">
-        <v>200</v>
+      <c r="C4" s="7">
+        <v>100</v>
+      </c>
+      <c r="D4" s="7">
+        <v>100</v>
+      </c>
+      <c r="E4" s="7">
+        <v>100</v>
+      </c>
+      <c r="F4" s="7">
+        <v>100</v>
+      </c>
+      <c r="G4" s="7">
+        <v>3600</v>
+      </c>
+      <c r="H4" s="7">
+        <v>50</v>
+      </c>
+      <c r="I4" s="7">
+        <v>100</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>47</v>
@@ -806,26 +817,26 @@
       <c r="B5" s="5">
         <v>4</v>
       </c>
-      <c r="C5" s="5">
-        <v>200</v>
-      </c>
-      <c r="D5" s="5">
-        <v>200</v>
-      </c>
-      <c r="E5" s="5">
-        <v>150</v>
-      </c>
-      <c r="F5" s="5">
-        <v>150</v>
-      </c>
-      <c r="G5" s="5">
-        <v>60</v>
-      </c>
-      <c r="H5" s="5">
-        <v>150</v>
-      </c>
-      <c r="I5" s="5">
-        <v>200</v>
+      <c r="C5" s="7">
+        <v>100</v>
+      </c>
+      <c r="D5" s="7">
+        <v>100</v>
+      </c>
+      <c r="E5" s="7">
+        <v>100</v>
+      </c>
+      <c r="F5" s="7">
+        <v>100</v>
+      </c>
+      <c r="G5" s="7">
+        <v>3600</v>
+      </c>
+      <c r="H5" s="7">
+        <v>50</v>
+      </c>
+      <c r="I5" s="7">
+        <v>100</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>47</v>
@@ -844,26 +855,26 @@
       <c r="B6" s="5">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
-        <v>200</v>
-      </c>
-      <c r="D6" s="5">
-        <v>200</v>
-      </c>
-      <c r="E6" s="5">
-        <v>150</v>
-      </c>
-      <c r="F6" s="5">
-        <v>150</v>
-      </c>
-      <c r="G6" s="5">
-        <v>60</v>
-      </c>
-      <c r="H6" s="5">
-        <v>150</v>
-      </c>
-      <c r="I6" s="5">
-        <v>200</v>
+      <c r="C6" s="7">
+        <v>100</v>
+      </c>
+      <c r="D6" s="7">
+        <v>100</v>
+      </c>
+      <c r="E6" s="7">
+        <v>100</v>
+      </c>
+      <c r="F6" s="7">
+        <v>100</v>
+      </c>
+      <c r="G6" s="7">
+        <v>3600</v>
+      </c>
+      <c r="H6" s="7">
+        <v>50</v>
+      </c>
+      <c r="I6" s="7">
+        <v>100</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>47</v>
@@ -882,26 +893,26 @@
       <c r="B7" s="5">
         <v>6</v>
       </c>
-      <c r="C7" s="5">
-        <v>250</v>
-      </c>
-      <c r="D7" s="5">
-        <v>250</v>
-      </c>
-      <c r="E7" s="5">
-        <v>200</v>
-      </c>
-      <c r="F7" s="5">
-        <v>200</v>
-      </c>
-      <c r="G7" s="5">
-        <v>120</v>
-      </c>
-      <c r="H7" s="5">
-        <v>200</v>
-      </c>
-      <c r="I7" s="5">
-        <v>250</v>
+      <c r="C7" s="1">
+        <v>500</v>
+      </c>
+      <c r="D7" s="1">
+        <v>300</v>
+      </c>
+      <c r="E7" s="1">
+        <v>300</v>
+      </c>
+      <c r="F7" s="1">
+        <v>500</v>
+      </c>
+      <c r="G7" s="1">
+        <v>300</v>
+      </c>
+      <c r="H7" s="1">
+        <v>100</v>
+      </c>
+      <c r="I7" s="1">
+        <v>100</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>47</v>
@@ -920,26 +931,26 @@
       <c r="B8" s="5">
         <v>7</v>
       </c>
-      <c r="C8" s="5">
-        <v>250</v>
-      </c>
-      <c r="D8" s="5">
-        <v>250</v>
-      </c>
-      <c r="E8" s="5">
-        <v>200</v>
-      </c>
-      <c r="F8" s="5">
-        <v>200</v>
-      </c>
-      <c r="G8" s="5">
-        <v>120</v>
-      </c>
-      <c r="H8" s="5">
-        <v>200</v>
-      </c>
-      <c r="I8" s="5">
-        <v>250</v>
+      <c r="C8" s="1">
+        <v>500</v>
+      </c>
+      <c r="D8" s="1">
+        <v>500</v>
+      </c>
+      <c r="E8" s="1">
+        <v>500</v>
+      </c>
+      <c r="F8" s="1">
+        <v>500</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1800</v>
+      </c>
+      <c r="H8" s="1">
+        <v>100</v>
+      </c>
+      <c r="I8" s="1">
+        <v>100</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>47</v>
@@ -958,26 +969,26 @@
       <c r="B9" s="5">
         <v>8</v>
       </c>
-      <c r="C9" s="5">
-        <v>150</v>
-      </c>
-      <c r="D9" s="5">
-        <v>150</v>
-      </c>
-      <c r="E9" s="5">
-        <v>100</v>
-      </c>
-      <c r="F9" s="5">
-        <v>100</v>
-      </c>
-      <c r="G9" s="5">
-        <v>120</v>
-      </c>
-      <c r="H9" s="5">
-        <v>100</v>
-      </c>
-      <c r="I9" s="5">
-        <v>150</v>
+      <c r="C9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="1">
+        <v>900</v>
+      </c>
+      <c r="H9" s="1">
+        <v>100</v>
+      </c>
+      <c r="I9" s="1">
+        <v>100</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>47</v>
@@ -996,26 +1007,26 @@
       <c r="B10" s="5">
         <v>9</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="1">
         <v>200</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="1">
         <v>200</v>
       </c>
-      <c r="E10" s="5">
-        <v>150</v>
-      </c>
-      <c r="F10" s="5">
-        <v>150</v>
-      </c>
-      <c r="G10" s="5">
-        <v>120</v>
-      </c>
-      <c r="H10" s="5">
-        <v>150</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="E10" s="1">
         <v>200</v>
+      </c>
+      <c r="F10" s="1">
+        <v>200</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1200</v>
+      </c>
+      <c r="H10" s="1">
+        <v>100</v>
+      </c>
+      <c r="I10" s="1">
+        <v>100</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>47</v>
@@ -1034,26 +1045,26 @@
       <c r="B11" s="5">
         <v>10</v>
       </c>
-      <c r="C11" s="5">
-        <v>400</v>
-      </c>
-      <c r="D11" s="5">
-        <v>400</v>
-      </c>
-      <c r="E11" s="5">
-        <v>200</v>
-      </c>
-      <c r="F11" s="5">
-        <v>200</v>
-      </c>
-      <c r="G11" s="5">
-        <v>120</v>
-      </c>
-      <c r="H11" s="5">
-        <v>200</v>
-      </c>
-      <c r="I11" s="5">
-        <v>400</v>
+      <c r="C11" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1500</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G11" s="1">
+        <v>7200</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1000</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>47</v>
@@ -1072,26 +1083,26 @@
       <c r="B12" s="5">
         <v>11</v>
       </c>
-      <c r="C12" s="5">
-        <v>300</v>
-      </c>
-      <c r="D12" s="5">
-        <v>300</v>
-      </c>
-      <c r="E12" s="5">
-        <v>150</v>
-      </c>
-      <c r="F12" s="5">
-        <v>150</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="C12" s="1">
+        <v>100</v>
+      </c>
+      <c r="D12" s="1">
+        <v>100</v>
+      </c>
+      <c r="E12" s="1">
+        <v>100</v>
+      </c>
+      <c r="F12" s="1">
+        <v>100</v>
+      </c>
+      <c r="G12" s="1">
         <v>120</v>
       </c>
-      <c r="H12" s="5">
-        <v>150</v>
-      </c>
-      <c r="I12" s="5">
-        <v>300</v>
+      <c r="H12" s="1">
+        <v>100</v>
+      </c>
+      <c r="I12" s="1">
+        <v>100</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>47</v>
